--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H2">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.44850446913137</v>
+        <v>87.94215800000001</v>
       </c>
       <c r="N2">
-        <v>2.44850446913137</v>
+        <v>263.826474</v>
       </c>
       <c r="O2">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039653</v>
       </c>
       <c r="P2">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039652</v>
       </c>
       <c r="Q2">
-        <v>81.15446816576875</v>
+        <v>5960.061398071687</v>
       </c>
       <c r="R2">
-        <v>81.15446816576875</v>
+        <v>53640.55258264518</v>
       </c>
       <c r="S2">
-        <v>0.03550812651007673</v>
+        <v>0.3470829847175812</v>
       </c>
       <c r="T2">
-        <v>0.03550812651007673</v>
+        <v>0.3470829847175811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H3">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.3901254032956</v>
+        <v>13.642319</v>
       </c>
       <c r="N3">
-        <v>13.3901254032956</v>
+        <v>40.926957</v>
       </c>
       <c r="O3">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="P3">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="Q3">
-        <v>443.8090758980359</v>
+        <v>924.5742963469231</v>
       </c>
       <c r="R3">
-        <v>443.8090758980359</v>
+        <v>8321.168667122307</v>
       </c>
       <c r="S3">
-        <v>0.19418313211194</v>
+        <v>0.05384239942109866</v>
       </c>
       <c r="T3">
-        <v>0.19418313211194</v>
+        <v>0.05384239942109866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H4">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.71700832799049</v>
+        <v>1.783357333333333</v>
       </c>
       <c r="N4">
-        <v>1.71700832799049</v>
+        <v>5.350072</v>
       </c>
       <c r="O4">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="P4">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="Q4">
-        <v>56.90939079384129</v>
+        <v>120.862615190408</v>
       </c>
       <c r="R4">
-        <v>56.90939079384129</v>
+        <v>1087.763536713672</v>
       </c>
       <c r="S4">
-        <v>0.02489999495519423</v>
+        <v>0.007038410247691665</v>
       </c>
       <c r="T4">
-        <v>0.02489999495519423</v>
+        <v>0.007038410247691665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H5">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.44850446913137</v>
+        <v>87.94215800000001</v>
       </c>
       <c r="N5">
-        <v>2.44850446913137</v>
+        <v>263.826474</v>
       </c>
       <c r="O5">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039653</v>
       </c>
       <c r="P5">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039652</v>
       </c>
       <c r="Q5">
-        <v>146.5081611364461</v>
+        <v>5362.502290627801</v>
       </c>
       <c r="R5">
-        <v>146.5081611364461</v>
+        <v>48262.52061565021</v>
       </c>
       <c r="S5">
-        <v>0.06410282068222529</v>
+        <v>0.3122842494857763</v>
       </c>
       <c r="T5">
-        <v>0.06410282068222529</v>
+        <v>0.3122842494857762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H6">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3901254032956</v>
+        <v>13.642319</v>
       </c>
       <c r="N6">
-        <v>13.3901254032956</v>
+        <v>40.926957</v>
       </c>
       <c r="O6">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="P6">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="Q6">
-        <v>801.2085233886487</v>
+        <v>831.8759574557537</v>
       </c>
       <c r="R6">
-        <v>801.2085233886487</v>
+        <v>7486.883617101783</v>
       </c>
       <c r="S6">
-        <v>0.3505588078197274</v>
+        <v>0.04844413017657067</v>
       </c>
       <c r="T6">
-        <v>0.3505588078197274</v>
+        <v>0.04844413017657066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H7">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.71700832799049</v>
+        <v>1.783357333333333</v>
       </c>
       <c r="N7">
-        <v>1.71700832799049</v>
+        <v>5.350072</v>
       </c>
       <c r="O7">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="P7">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="Q7">
-        <v>102.7385230295668</v>
+        <v>108.7448614236631</v>
       </c>
       <c r="R7">
-        <v>102.7385230295668</v>
+        <v>978.703752812968</v>
       </c>
       <c r="S7">
-        <v>0.044951960817988</v>
+        <v>0.00633273527816949</v>
       </c>
       <c r="T7">
-        <v>0.044951960817988</v>
+        <v>0.006332735278169489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H8">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.44850446913137</v>
+        <v>87.94215800000001</v>
       </c>
       <c r="N8">
-        <v>2.44850446913137</v>
+        <v>263.826474</v>
       </c>
       <c r="O8">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039653</v>
       </c>
       <c r="P8">
-        <v>0.1394711169812753</v>
+        <v>0.8507690866039652</v>
       </c>
       <c r="Q8">
-        <v>91.10114213723361</v>
+        <v>3286.72635145313</v>
       </c>
       <c r="R8">
-        <v>91.10114213723361</v>
+        <v>29580.53716307817</v>
       </c>
       <c r="S8">
-        <v>0.03986016978897333</v>
+        <v>0.1914018524006079</v>
       </c>
       <c r="T8">
-        <v>0.03986016978897333</v>
+        <v>0.1914018524006079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H9">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.3901254032956</v>
+        <v>13.642319</v>
       </c>
       <c r="N9">
-        <v>13.3901254032956</v>
+        <v>40.926957</v>
       </c>
       <c r="O9">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="P9">
-        <v>0.7627250715942182</v>
+        <v>0.1319783769098539</v>
       </c>
       <c r="Q9">
-        <v>498.2044072126078</v>
+        <v>509.8643286901114</v>
       </c>
       <c r="R9">
-        <v>498.2044072126078</v>
+        <v>4588.778958211003</v>
       </c>
       <c r="S9">
-        <v>0.2179831316625508</v>
+        <v>0.02969184731218455</v>
       </c>
       <c r="T9">
-        <v>0.2179831316625508</v>
+        <v>0.02969184731218455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H10">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.71700832799049</v>
+        <v>1.783357333333333</v>
       </c>
       <c r="N10">
-        <v>1.71700832799049</v>
+        <v>5.350072</v>
       </c>
       <c r="O10">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="P10">
-        <v>0.09780381142450638</v>
+        <v>0.01725253648618087</v>
       </c>
       <c r="Q10">
-        <v>63.8844738537755</v>
+        <v>66.65071309171023</v>
       </c>
       <c r="R10">
-        <v>63.8844738537755</v>
+        <v>599.856417825392</v>
       </c>
       <c r="S10">
-        <v>0.02795185565132416</v>
+        <v>0.003881390960319718</v>
       </c>
       <c r="T10">
-        <v>0.02795185565132416</v>
+        <v>0.003881390960319718</v>
       </c>
     </row>
   </sheetData>
